--- a/Proj/Info.xlsx
+++ b/Proj/Info.xlsx
@@ -984,15 +984,9 @@
     <t>Canteen</t>
   </si>
   <si>
-    <t>+10 Load/-1 Speed</t>
-  </si>
-  <si>
     <t>-2 Speed</t>
   </si>
   <si>
-    <t>+2 Regen/-1 Speed</t>
-  </si>
-  <si>
     <t>+5 Regen</t>
   </si>
   <si>
@@ -1021,6 +1015,12 @@
   </si>
   <si>
     <t>Sneakers</t>
+  </si>
+  <si>
+    <t>+2 Regen/0 Speed</t>
+  </si>
+  <si>
+    <t>+10 Load/0 Speed</t>
   </si>
 </sst>
 </file>
@@ -1499,9 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>107</v>
@@ -1616,61 +1616,61 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1908,7 +1908,7 @@
         <v>147</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
@@ -1928,10 +1928,10 @@
         <v>147</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,10 +1948,10 @@
         <v>147</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>81</v>
@@ -2028,7 +2028,7 @@
         <v>151</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>79</v>
@@ -2048,7 +2048,7 @@
         <v>151</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>79</v>

--- a/Proj/Info.xlsx
+++ b/Proj/Info.xlsx
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
